--- a/RAW.xlsx
+++ b/RAW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Walter\Altos\Liga-Altos-del-Paracao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Walter\Pagina Web Torneos\Claude\Torneo Altos del Paracao\Liga-Altos-del-Paracao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="278">
   <si>
     <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/</t>
   </si>
@@ -369,6 +369,495 @@
   </si>
   <si>
     <t>sistema_futbol.sql</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin_usuarios.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/config.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/index.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/login.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/logout.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/sistema_futbol.sql</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/asignar_canchas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/asignar_horarios.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/campeonatos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/campeonatos_zonas_fixture.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/canchas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/categorias.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/control_eliminatorias.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/control_fechas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/control_partidos_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/dashboard.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/descargar_planillas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/equipos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/eventos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/eventos_vivo.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/funciones_torneos_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/generar_canchas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/generar_eliminatorias.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/generar_fixture.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/generar_planilla_pdf.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/gestion_codigos_cancha.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_eventos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_eventos_partido.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_jugadores.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_jugadores_sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_partidos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/hook_finalizar_partido.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/horarios.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/index.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/jugadores.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/partidos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/reprogramar_fechas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/resolver_empates.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/sancion_auto.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/torneos_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/torneos_zonas_crear.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/torneos_zonas_ver.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/usuarios.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/asignar_equipo.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/asignar_equipos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/asignar_equipo_zona.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/asignar_equipo_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/delete_format.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/distribuir_automatico.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/distribuir_equipos_automatico.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/distribuir_equipo_automatico.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/eliminar_formato.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/eliminar_formato_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/generar_fixture.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/generar_fixture_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_categorias - copia.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_categorias.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_equipos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_eventos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_eventos_partido.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_eventos_partido_nuevo.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_eventos_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_fechas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_jugador.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_jugadores - copia.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_jugadores.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_jugadores_sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_partidos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_partidos_fase.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_partido_eliminatorio.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_partido_zona.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/guardar_eventos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/guardar_formato.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/guardar_formato_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/limpiar_equipos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/limpiar_equipos_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/limpiar_equipo_zona.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/listado.txt</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/quitar_equipo_zona.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/quitar_equipo_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/verificar_sistema.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/asignar_equipo.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/asignar_equipos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/asignar_equipo_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/delete_format.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/desempate_functions.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/distribuir_automatico.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/distribuir_equipos_automatico.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/distribuir_equipo_automatico.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/eliminar_formato.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/eliminar_formato_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/generar_fixture.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/generar_fixture_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_categorias - copia.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_categorias.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_equipos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_eventos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_eventos_partido.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_eventos_partido_nuevo.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_eventos_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_fechas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_jugador.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_jugadores.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_jugadores_sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_partidos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_partido_eliminatorio.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_partido_zona.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/guardar_eventos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/guardar_formato.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/guardar_formato_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/limpiar_equipos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/limpiar_equipos_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/quitar_equipo_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/sanciones_functions.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/sidebar.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/torneo_nocturno.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/zonas_functions.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_eventos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_eventos_partido.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_jugadores.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_jugadores_sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_partidos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/live_scores.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/assets/cssstyle.css</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/assets/js    main.js</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/include/header.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/include/sidebar.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/logs/activity.log</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/logs/php_errors.log</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/crear_planillero.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/generar_clave.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/get_eventos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/guardar_eventos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/guardar_partido.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/historial_jugador.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/index.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/partidos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/partido_live.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/planillero.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/bracket_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/control_fechas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/estadisticas_historicas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/fairplay.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/fixture.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/get_sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/goleadores.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/historial_completo_equipo.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/historial_equipos.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/historial_jugador.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/hook_finalizar_partido.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/jugador.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/logout.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/resultados.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/sanciones.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/sancion_auto.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/tablas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/tablas_zonas.php</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/torneo_nocturno.php</t>
   </si>
 </sst>
 </file>
@@ -699,80 +1188,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="136" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>CONCATENATE($A$1,E2)</f>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin_usuarios.php</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>115</v>
       </c>
       <c r="E2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A7" si="0">CONCATENATE($A$1,E3)</f>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/config.php</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/index.php</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>117</v>
       </c>
       <c r="E4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/login.php</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>118</v>
       </c>
       <c r="E5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/logout.php</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/sistema_futbol.sql</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>CONCATENATE($A$1,D8,E8)</f>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/asignar_canchas.php</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>121</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -781,10 +1263,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" ref="A9:A72" si="1">CONCATENATE($A$1,D9,E9)</f>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/asignar_horarios.php</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>122</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -793,10 +1274,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/campeonatos.php</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -805,10 +1285,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/campeonatos_zonas_fixture.php</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>124</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -817,10 +1296,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/canchas.php</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>125</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -829,10 +1307,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/categorias.php</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>126</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -841,10 +1318,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/control_eliminatorias.php</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>127</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -853,10 +1329,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/control_fechas.php</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>128</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -865,10 +1340,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/control_partidos_zonas.php</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>129</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -877,10 +1351,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/dashboard.php</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>130</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -889,10 +1362,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/descargar_planillas.php</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>131</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -901,10 +1373,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/equipos.php</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>132</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -913,10 +1384,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/eventos.php</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>133</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -925,10 +1395,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/eventos_vivo.php</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>134</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -937,10 +1406,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/funciones_torneos_zonas.php</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>135</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -949,10 +1417,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/generar_canchas.php</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>136</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -961,10 +1428,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/generar_eliminatorias.php</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>137</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -973,10 +1439,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/generar_fixture.php</v>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>138</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -985,10 +1450,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/generar_planilla_pdf.php</v>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>139</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -997,10 +1461,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/gestion_codigos_cancha.php</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>140</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -1009,10 +1472,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_eventos.php</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -1021,10 +1483,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_eventos_partido.php</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>142</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -1033,10 +1494,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_jugadores.php</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>143</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -1045,10 +1505,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_jugadores_sanciones.php</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>144</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -1057,10 +1516,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_partidos.php</v>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>145</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -1069,10 +1527,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/get_sanciones.php</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>146</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -1081,10 +1538,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/hook_finalizar_partido.php</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>147</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -1093,10 +1549,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/horarios.php</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>148</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -1105,10 +1560,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/index.php</v>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>149</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -1117,10 +1571,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/jugadores.php</v>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>150</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -1129,10 +1582,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/partidos.php</v>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>151</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -1141,10 +1593,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/reprogramar_fechas.php</v>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>152</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -1153,10 +1604,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/resolver_empates.php</v>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>153</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -1165,10 +1615,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/sanciones.php</v>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>154</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -1177,10 +1626,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/sancion_auto.php</v>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>155</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -1189,10 +1637,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/torneos_zonas.php</v>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>156</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -1201,10 +1648,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/torneos_zonas_crear.php</v>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>157</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -1213,10 +1659,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/torneos_zonas_ver.php</v>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>158</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -1225,10 +1670,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/usuarios.php</v>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>159</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -1237,10 +1681,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/asignar_equipo.php</v>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>160</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
@@ -1249,10 +1692,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/asignar_equipos.php</v>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>161</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -1261,10 +1703,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/asignar_equipo_zona.php</v>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>162</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -1273,10 +1714,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/asignar_equipo_zonas.php</v>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>163</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -1285,10 +1725,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/delete_format.php</v>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>164</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -1297,10 +1736,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/distribuir_automatico.php</v>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>165</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
@@ -1309,10 +1747,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/distribuir_equipos_automatico.php</v>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>166</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
@@ -1321,10 +1758,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/distribuir_equipo_automatico.php</v>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>167</v>
       </c>
       <c r="D54" t="s">
         <v>2</v>
@@ -1333,10 +1769,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/eliminar_formato.php</v>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>168</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
@@ -1345,10 +1780,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/eliminar_formato_zonas.php</v>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>169</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
@@ -1357,10 +1791,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/generar_fixture.php</v>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>170</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
@@ -1369,10 +1802,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/generar_fixture_zonas.php</v>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>171</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
@@ -1381,10 +1813,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_categorias - copia.php</v>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>172</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
@@ -1393,10 +1824,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_categorias.php</v>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>173</v>
       </c>
       <c r="D60" t="s">
         <v>2</v>
@@ -1405,10 +1835,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_equipos.php</v>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>174</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
@@ -1417,10 +1846,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_eventos.php</v>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>175</v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
@@ -1429,10 +1857,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_eventos_partido.php</v>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>176</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
@@ -1441,10 +1868,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_eventos_partido_nuevo.php</v>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>177</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
@@ -1453,10 +1879,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_eventos_zonas.php</v>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>178</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
@@ -1465,10 +1890,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_fechas.php</v>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>179</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
@@ -1477,10 +1901,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_jugador.php</v>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>180</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
@@ -1489,10 +1912,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_jugadores - copia.php</v>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>181</v>
       </c>
       <c r="D68" t="s">
         <v>2</v>
@@ -1501,10 +1923,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_jugadores.php</v>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>182</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
@@ -1513,10 +1934,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_jugadores_sanciones.php</v>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>183</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
@@ -1525,10 +1945,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_partidos.php</v>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>184</v>
       </c>
       <c r="D71" t="s">
         <v>2</v>
@@ -1537,10 +1956,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_partidos_fase.php</v>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>185</v>
       </c>
       <c r="D72" t="s">
         <v>2</v>
@@ -1549,10 +1967,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
-        <f t="shared" ref="A73:A136" si="2">CONCATENATE($A$1,D73,E73)</f>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_partido_eliminatorio.php</v>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>186</v>
       </c>
       <c r="D73" t="s">
         <v>2</v>
@@ -1561,10 +1978,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_partido_zona.php</v>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>187</v>
       </c>
       <c r="D74" t="s">
         <v>2</v>
@@ -1573,10 +1989,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/get_sanciones.php</v>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>188</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
@@ -1585,10 +2000,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/guardar_eventos.php</v>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>189</v>
       </c>
       <c r="D76" t="s">
         <v>2</v>
@@ -1597,10 +2011,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/guardar_formato.php</v>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>190</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
@@ -1609,10 +2022,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/guardar_formato_zonas.php</v>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>191</v>
       </c>
       <c r="D78" t="s">
         <v>2</v>
@@ -1621,10 +2033,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/limpiar_equipos.php</v>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>192</v>
       </c>
       <c r="D79" t="s">
         <v>2</v>
@@ -1633,10 +2044,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/limpiar_equipos_zonas.php</v>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>193</v>
       </c>
       <c r="D80" t="s">
         <v>2</v>
@@ -1645,10 +2055,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/limpiar_equipo_zona.php</v>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>194</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
@@ -1657,10 +2066,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/listado.txt</v>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>195</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -1669,10 +2077,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/quitar_equipo_zona.php</v>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>196</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -1681,10 +2088,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/quitar_equipo_zonas.php</v>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>197</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -1693,10 +2099,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/ajax/verificar_sistema.php</v>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>198</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
@@ -1705,10 +2110,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/asignar_equipo.php</v>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>199</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -1717,10 +2121,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/asignar_equipos.php</v>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>200</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -1729,10 +2132,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/asignar_equipo_zonas.php</v>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>201</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -1741,10 +2143,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/delete_format.php</v>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>202</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -1753,10 +2154,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/desempate_functions.php</v>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>203</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -1765,10 +2165,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/distribuir_automatico.php</v>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>204</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -1777,10 +2176,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/distribuir_equipos_automatico.php</v>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>205</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -1789,10 +2187,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/distribuir_equipo_automatico.php</v>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>206</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -1801,10 +2198,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/eliminar_formato.php</v>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>207</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -1813,10 +2209,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/eliminar_formato_zonas.php</v>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>208</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -1825,10 +2220,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/generar_fixture.php</v>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>209</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
@@ -1837,10 +2231,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/generar_fixture_zonas.php</v>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>210</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -1849,10 +2242,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_categorias - copia.php</v>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>211</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -1861,10 +2253,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_categorias.php</v>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>212</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -1873,10 +2264,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_equipos.php</v>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>213</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -1885,10 +2275,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_eventos.php</v>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>214</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -1897,10 +2286,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_eventos_partido.php</v>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>215</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -1909,10 +2297,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_eventos_partido_nuevo.php</v>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>216</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
@@ -1921,10 +2308,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_eventos_zonas.php</v>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>217</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
@@ -1933,10 +2319,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_fechas.php</v>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>218</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -1945,10 +2330,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_jugador.php</v>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>219</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
@@ -1957,10 +2341,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_jugadores.php</v>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>220</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -1969,10 +2352,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_jugadores_sanciones.php</v>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>221</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -1981,10 +2363,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_partidos.php</v>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>222</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -1993,10 +2374,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_partido_eliminatorio.php</v>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>223</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -2005,10 +2385,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_partido_zona.php</v>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>224</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
@@ -2017,10 +2396,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/get_sanciones.php</v>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>225</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -2029,10 +2407,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/guardar_eventos.php</v>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>226</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -2041,10 +2418,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/guardar_formato.php</v>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>227</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -2053,10 +2429,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/guardar_formato_zonas.php</v>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>228</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
@@ -2065,10 +2440,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/limpiar_equipos.php</v>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>229</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -2077,10 +2451,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/limpiar_equipos_zonas.php</v>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>230</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
@@ -2089,10 +2462,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/quitar_equipo_zonas.php</v>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>231</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
@@ -2101,10 +2473,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/sanciones_functions.php</v>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>232</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -2113,10 +2484,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/sidebar.php</v>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>233</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -2125,10 +2495,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/torneo_nocturno.php</v>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>234</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -2137,10 +2506,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/admin/include/zonas_functions.php</v>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>235</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -2149,10 +2517,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_eventos.php</v>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>236</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -2161,10 +2528,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_eventos_partido.php</v>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>237</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
@@ -2173,10 +2539,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_jugadores.php</v>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>238</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
@@ -2185,10 +2550,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_jugadores_sanciones.php</v>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>239</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -2197,10 +2561,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_partidos.php</v>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>240</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -2209,10 +2572,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/get_sanciones.php</v>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>241</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -2221,10 +2583,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/api/live_scores.php</v>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>242</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -2233,10 +2594,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/assets/cssstyle.css</v>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>243</v>
       </c>
       <c r="D130" t="s">
         <v>6</v>
@@ -2245,10 +2605,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/assets/js    main.js</v>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>244</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -2257,10 +2616,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/include/header.php</v>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>245</v>
       </c>
       <c r="D132" t="s">
         <v>5</v>
@@ -2269,10 +2627,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/include/sidebar.php</v>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>246</v>
       </c>
       <c r="D133" t="s">
         <v>5</v>
@@ -2281,10 +2638,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/logs/activity.log</v>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>247</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
@@ -2293,10 +2649,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/logs/php_errors.log</v>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>248</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -2305,10 +2660,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/crear_planillero.php</v>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>249</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -2317,10 +2671,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="str">
-        <f t="shared" ref="A137:A164" si="3">CONCATENATE($A$1,D137,E137)</f>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/generar_clave.php</v>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>250</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
@@ -2329,10 +2682,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/get_eventos.php</v>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>251</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -2341,10 +2693,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/guardar_eventos.php</v>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>252</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -2353,10 +2704,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/guardar_partido.php</v>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>253</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
@@ -2365,10 +2715,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/historial_jugador.php</v>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>254</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
@@ -2377,10 +2726,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/index.php</v>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>255</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -2389,10 +2737,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/partidos.php</v>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>256</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
@@ -2401,10 +2748,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/partido_live.php</v>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>257</v>
       </c>
       <c r="D144" t="s">
         <v>9</v>
@@ -2413,10 +2759,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/planillero/planillero.php</v>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>258</v>
       </c>
       <c r="D145" t="s">
         <v>9</v>
@@ -2425,10 +2770,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/bracket_zonas.php</v>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>259</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -2437,10 +2781,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/control_fechas.php</v>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>260</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
@@ -2449,10 +2792,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/estadisticas_historicas.php</v>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>261</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -2461,10 +2803,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/fairplay.php</v>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>262</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
@@ -2473,10 +2814,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/fixture.php</v>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>263</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -2485,10 +2825,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/get_sanciones.php</v>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>264</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -2497,10 +2836,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/goleadores.php</v>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>265</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
@@ -2509,10 +2847,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/historial_completo_equipo.php</v>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>266</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -2521,10 +2858,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/historial_equipos.php</v>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>267</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -2533,10 +2869,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/historial_jugador.php</v>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>268</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -2545,10 +2880,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/hook_finalizar_partido.php</v>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>269</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
@@ -2557,10 +2891,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/jugador.php</v>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>270</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -2569,10 +2902,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/logout.php</v>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>271</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
@@ -2581,10 +2913,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/resultados.php</v>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>272</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -2593,10 +2924,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/sanciones.php</v>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>273</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
@@ -2605,10 +2935,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/sancion_auto.php</v>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>274</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
@@ -2617,10 +2946,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/tablas.php</v>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>275</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
@@ -2629,10 +2957,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/tablas_zonas.php</v>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>276</v>
       </c>
       <c r="D163" t="s">
         <v>10</v>
@@ -2641,10 +2968,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/LigaAltodelParacao/Liga-Altos-del-Paracao/refs/heads/main/public/torneo_nocturno.php</v>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>277</v>
       </c>
       <c r="D164" t="s">
         <v>10</v>
@@ -2656,8 +2982,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>